--- a/biology/Zoologie/Diphascon/Diphascon.xlsx
+++ b/biology/Zoologie/Diphascon/Diphascon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diphascon est un genre de tardigrades de la famille des Hypsibiidae, le seul de la sous-famille des Diphasconinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Degma, Bertolani et Guidetti, 2017[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Degma, Bertolani et Guidetti, 2017 :
 Diphascon alpinum Murray, 1906
 Diphascon australianum Pilato &amp; Binda, 1998
 Diphascon bicorne (Mihelčič, 1971)
@@ -583,9 +597,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été révisé par Bertolani, Guidetti, Marchioro, Altiero, Rebecchi et Cesari en 2014[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été révisé par Bertolani, Guidetti, Marchioro, Altiero, Rebecchi et Cesari en 2014.
 </t>
         </is>
       </c>
@@ -614,7 +630,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plate, 1888 : Beiträge zur Naturgeschichte der Tardigraden. Zoologische Jahrbücher. Abteilung für Anatomie und Ontogenie der Tiere, vol. 3, p. 487-550 (texte intégral).
 Dastych, 1992 : Paradiphascon manningi gen. n. sp. n., a new water-bear from South Africa, with the erecting of a new subfamily Diphasconinae (Tardigrada). Mitteilungen aus dem Hamburgischen Zoologischen Museum und Institut, vol. 89, p. 125-139 (texte intégral).</t>
